--- a/Process/Lesson8/BPLesson8.xlsx
+++ b/Process/Lesson8/BPLesson8.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Формирование предварительных гипотез по улучшению процессов</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Источник недовольства сотрудников</t>
   </si>
   <si>
+    <t>Затраты на реализацию</t>
+  </si>
+  <si>
     <t>Итого</t>
   </si>
   <si>
@@ -46,8 +49,8 @@
     <t>Примечания:</t>
   </si>
   <si>
-    <t>Снижения периода обновления информации позволит предоставлять актуальные сведения о маршрутах.
-Улучшение работы сервера электронной почты уменьшит задержки ее доставки</t>
+    <t>Уменьшение периода обновления информации позволит предоставлять актуальные сведения.
+Улучшение работы сервера электронной почты уменьшит задержки в ее доставки</t>
   </si>
 </sst>
 </file>
@@ -345,6 +348,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="40.63"/>
+    <col customWidth="1" min="7" max="7" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -374,10 +378,13 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>5.0</v>
@@ -394,14 +401,17 @@
       <c r="F3" s="3">
         <v>5.0</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G4" si="1">SUM(B3:F3)</f>
-        <v>20</v>
+      <c r="G3" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H4" si="1">SUM(B3:G3)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>4.0</v>
@@ -416,27 +426,30 @@
         <v>3.0</v>
       </c>
       <c r="F4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="G4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H4" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
